--- a/puchengy/test-share-weights-cnn/result.xlsx
+++ b/puchengy/test-share-weights-cnn/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pucheng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pucheng/Desktop/final-project/10707project/puchengy/test-share-weights-cnn/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +59,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,9 +99,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -364,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="139" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -391,352 +420,352 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>16</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.93440223960299995</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.93617402242000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>64</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.93298637738599999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>128</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.93204137450900004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.94560394938199999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>32</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.94745705722600004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
         <v>64</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.94674525814900001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>128</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.94556291542500004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.94793115133500006</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
         <v>32</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.94771789488699998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
         <v>64</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.95025066009400005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
         <v>128</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.94800601446300004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.90409450359400001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
         <v>32</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.90890244093999994</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
         <v>64</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>0.90460437593700005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <v>128</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>0.90460325081500004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>0.93156325243299998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
         <v>32</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.94287024744000003</v>
+      <c r="D19" s="5">
+        <v>0.93891660329500004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
         <v>64</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>0.93960580365199997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
         <v>128</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0.94011882167500005</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>0.93683943438600004</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
         <v>32</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>0.93341522028199997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
         <v>64</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>0.93387762909700001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
         <v>128</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>0.93767942902699997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
         <v>16</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>0.90636910996999998</v>
       </c>
     </row>
@@ -807,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="1">
-        <v>0.94083323913399997</v>
+        <v>0.93692705837599999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
